--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E348260-4CBB-4962-AA1F-107C0F9D3B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA94B0-84B2-424A-A410-CDE0EC71FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -268,12 +268,6 @@
     <t>Hero_1</t>
   </si>
   <si>
-    <t>51011102,51011201,51011301</t>
-  </si>
-  <si>
-    <t>101,102,103</t>
-  </si>
-  <si>
     <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
   </si>
   <si>
@@ -286,12 +280,6 @@
     <t>Hero_2</t>
   </si>
   <si>
-    <t>52011102,52011201,52011301</t>
-  </si>
-  <si>
-    <t>201,202,203</t>
-  </si>
-  <si>
     <t>1002,1004,2003,2002,1001,3001,3002,1003</t>
   </si>
   <si>
@@ -301,13 +289,11 @@
     <t>Hero_3</t>
   </si>
   <si>
-    <t>53011102,53011201,53011301</t>
-  </si>
-  <si>
-    <t>301,302,303</t>
-  </si>
-  <si>
     <t>1002,1004,2002,1001,3001,3002,1003,2003</t>
+  </si>
+  <si>
+    <t>1010001,1010011,1010031,1010041</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1576,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1623,9 +1609,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2274,7 +2257,7 @@
   <dimension ref="C1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2290,7 +2273,7 @@
     <col min="31" max="31" width="35.625" customWidth="1"/>
     <col min="32" max="32" width="15.875" customWidth="1"/>
     <col min="33" max="33" width="42.375" customWidth="1"/>
-    <col min="34" max="34" width="43.875" customWidth="1"/>
+    <col min="34" max="34" width="66.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2675,16 +2658,16 @@
         <v>50000101</v>
       </c>
       <c r="AE6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>101102103</v>
+      </c>
+      <c r="AG6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AH6" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -2772,17 +2755,17 @@
       <c r="AD7" s="14">
         <v>50000201</v>
       </c>
-      <c r="AE7" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF7" s="16" t="s">
-        <v>71</v>
+      <c r="AE7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>201202203</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AH7" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2790,10 +2773,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -2870,17 +2853,17 @@
       <c r="AD8" s="14">
         <v>50000301</v>
       </c>
-      <c r="AE8" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF8" s="16" t="s">
-        <v>76</v>
+      <c r="AE8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>301302303</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="3:34" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA94B0-84B2-424A-A410-CDE0EC71FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCAB44-BD99-4CD8-84A8-A02FA1DAB53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="AD6" s="14">
-        <v>50000101</v>
+        <v>1200001</v>
       </c>
       <c r="AE6" s="16" t="s">
         <v>72</v>

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCAB44-BD99-4CD8-84A8-A02FA1DAB53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAAA183-CB40-4584-B614-E3533828BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -2257,7 +2257,7 @@
   <dimension ref="C1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAAA183-CB40-4584-B614-E3533828BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325FCEC6-4CDF-4172-B293-A10F2037396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <t>1002,1004,2002,1001,3001,3002,1003,2003</t>
   </si>
   <si>
-    <t>1010001,1010011,1010031,1010041</t>
+    <t>1010001,1010011,1010021,1010031</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325FCEC6-4CDF-4172-B293-A10F2037396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5AD57-E6E3-49F4-941D-B01C04C53DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,21 +599,6 @@
       <right style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top/>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -629,6 +620,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39988402966399123"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -693,7 +699,7 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,7 +726,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -980,7 +986,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,7 +1166,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,7 +1223,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1364,7 +1370,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,124 +1447,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,16 +1605,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2585,55 +2591,55 @@
       <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="17">
         <v>5250</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="17">
         <v>250</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="17">
         <v>500</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="17">
         <v>75</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="17">
         <v>160</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="17">
         <v>75</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="17">
         <v>160</v>
       </c>
-      <c r="N6" s="13">
-        <v>5</v>
-      </c>
-      <c r="O6" s="13">
+      <c r="N6" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="O6" s="17">
         <v>0.05</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>0</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="13">
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>0</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <v>0</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <v>0</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="13">
         <v>350</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="13">
         <v>12</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="13">
         <v>12</v>
       </c>
       <c r="X6" s="12">
@@ -2642,31 +2648,31 @@
       <c r="Y6" s="12">
         <v>0</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="13">
         <v>10</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="13">
         <v>10</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="13">
         <v>4</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="13">
         <v>4</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="13">
         <v>1200001</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AE6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="15">
         <v>101102103</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AG6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AH6" s="17" t="s">
+      <c r="AH6" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2683,55 +2689,55 @@
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="17">
         <v>3750</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="17">
         <v>350</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="17">
         <v>700</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="17">
         <v>75</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="17">
         <v>120</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="17">
         <v>75</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="17">
         <v>120</v>
       </c>
-      <c r="N7" s="13">
-        <v>5</v>
-      </c>
-      <c r="O7" s="13">
+      <c r="N7" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="O7" s="17">
         <v>0.05</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>0</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <v>0</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="13">
         <v>0</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="13">
         <v>0</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <v>0</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="13">
         <v>250</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="13">
         <v>12</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="13">
         <v>12</v>
       </c>
       <c r="X7" s="12">
@@ -2740,31 +2746,31 @@
       <c r="Y7" s="12">
         <v>3</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="13">
         <v>4</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="13">
         <v>4</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="13">
         <v>6</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="13">
         <v>6</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="13">
         <v>50000201</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AE7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="15">
         <v>201202203</v>
       </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AG7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AH7" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2781,55 +2787,55 @@
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="17">
         <v>3750</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="17">
         <v>350</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="17">
         <v>700</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="17">
         <v>75</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="17">
         <v>120</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="17">
         <v>75</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="17">
         <v>120</v>
       </c>
-      <c r="N8" s="13">
-        <v>5</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="N8" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="O8" s="17">
         <v>0.05</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>0</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="13">
         <v>0</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="13">
         <v>0</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="13">
         <v>0</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <v>0</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="13">
         <v>250</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <v>12</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="13">
         <v>12</v>
       </c>
       <c r="X8" s="12">
@@ -2838,61 +2844,61 @@
       <c r="Y8" s="12">
         <v>3</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="13">
         <v>4</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="13">
         <v>4</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="13">
         <v>6</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="13">
         <v>6</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="13">
         <v>50000301</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AE8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="15">
         <v>301302303</v>
       </c>
-      <c r="AG8" s="16" t="s">
+      <c r="AG8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AH8" s="17" t="s">
+      <c r="AH8" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
     </row>
     <row r="12" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
     </row>
     <row r="16" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="W16" s="15"/>
+      <c r="W16" s="14"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W17" s="15"/>
+      <c r="W17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5AD57-E6E3-49F4-941D-B01C04C53DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB7119-ACC6-42E4-B61C-800060B65456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -294,6 +294,9 @@
   <si>
     <t>1010001,1010011,1010021,1010031</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001,1020011,1020021,1020031</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2762,7 +2765,7 @@
         <v>50000201</v>
       </c>
       <c r="AE7" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF7" s="15">
         <v>201202203</v>

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB7119-ACC6-42E4-B61C-800060B65456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA8943-8953-482C-BC12-77CFBF892230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2266,7 +2266,7 @@
   <dimension ref="C1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2762,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="AD7" s="13">
-        <v>50000201</v>
+        <v>1200101</v>
       </c>
       <c r="AE7" s="15" t="s">
         <v>73</v>

--- a/Unity/Assets/Config/Excel/OccupationConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA8943-8953-482C-BC12-77CFBF892230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73225B88-552F-42A9-AE74-4B985FB8E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -296,7 +296,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1020001,1020011,1020021,1020031</t>
+    <t>1010002,1010011,1010021,1010031</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020002,1020011,1020021,1020031</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2265,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2672,7 @@
         <v>1200001</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" s="15">
         <v>101102103</v>
@@ -2765,7 +2770,7 @@
         <v>1200101</v>
       </c>
       <c r="AE7" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF7" s="15">
         <v>201202203</v>
